--- a/Burndown Charts.xlsx
+++ b/Burndown Charts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Début</t>
+  </si>
+  <si>
+    <t>Sprint 5 (Interface)</t>
   </si>
 </sst>
 </file>
@@ -158,9 +161,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$B$1:$F$1</c:f>
+              <c:f>Feuil1!$B$1:$G$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Début</c:v>
                 </c:pt>
@@ -175,29 +178,35 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 5 (Interface)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$F$2</c:f>
+              <c:f>Feuil1!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -215,11 +224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2122745560"/>
-        <c:axId val="2122747896"/>
+        <c:axId val="2092972744"/>
+        <c:axId val="2092975048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2122745560"/>
+        <c:axId val="2092972744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -228,7 +237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122747896"/>
+        <c:crossAx val="2092975048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -236,7 +245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122747896"/>
+        <c:axId val="2092975048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -247,7 +256,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122745560"/>
+        <c:crossAx val="2092972744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -283,15 +292,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>338667</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>8467</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>42334</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1227667</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -635,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -646,9 +655,10 @@
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -665,24 +675,30 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
-        <v>4</v>
-      </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
         <v>0</v>
       </c>
     </row>
